--- a/data/trans_orig/P78DS4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78DS4_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A6A25BA-7C99-4D05-BF5D-F658D625236F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC56562-FF79-4B73-86E4-8386C149EA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5154EE85-8307-4785-816A-035EE0069EF9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A4FF45B8-0EEE-4CA5-9B0E-509436CC95E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="99">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 4 en 2023 (Tasa respuesta: 95,8%)</t>
   </si>
@@ -128,7 +128,7 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,06%</t>
+    <t>1,05%</t>
   </si>
   <si>
     <t>0,16%</t>
@@ -140,79 +140,82 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,77%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,99%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
     <t>99,31%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,16%</t>
+    <t>99,12%</t>
   </si>
   <si>
     <t>99,91%</t>
@@ -263,9 +266,6 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
     <t>0,05%</t>
   </si>
   <si>
@@ -278,9 +278,6 @@
     <t>99,9%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
     <t>99,95%</t>
   </si>
   <si>
@@ -320,16 +317,16 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,14%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>99,94%</t>
   </si>
   <si>
     <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
   </si>
   <si>
     <t>99,98%</t>
@@ -747,7 +744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D0127D-C6A6-4F3C-A6FF-FA23A6436EA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD092886-BDE2-44FA-A6C5-072AF4EBD952}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1867,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -1918,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -1969,7 +1966,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2002,7 +1999,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>22</v>
@@ -2014,10 +2011,10 @@
         <v>383324</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>20</v>
@@ -2029,10 +2026,10 @@
         <v>694015</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>20</v>
@@ -2091,7 +2088,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2109,7 +2106,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2124,7 +2121,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2139,7 +2136,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,7 +2157,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2175,7 +2172,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2190,7 +2187,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2226,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2241,7 +2238,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,7 +2259,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2277,7 +2274,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2292,7 +2289,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,7 +2307,7 @@
         <v>20</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>22</v>
@@ -2325,7 +2322,7 @@
         <v>20</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>22</v>
@@ -2340,7 +2337,7 @@
         <v>20</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>22</v>
@@ -2399,7 +2396,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2432,7 +2429,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2447,7 +2444,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,7 +2480,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -2498,7 +2495,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -2549,7 +2546,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,7 +2582,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -2600,7 +2597,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,7 +2645,7 @@
         <v>20</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>22</v>
@@ -2707,7 +2704,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -2725,7 +2722,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -2740,7 +2737,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -2776,7 +2773,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -2791,7 +2788,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -2827,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -2842,7 +2839,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -2878,7 +2875,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -2887,13 +2884,13 @@
         <v>729</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -2941,7 +2938,7 @@
         <v>79</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>20</v>
@@ -2953,10 +2950,10 @@
         <v>1363851</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>20</v>
@@ -3015,7 +3012,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3033,37 +3030,37 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L46" s="7" t="s">
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="M46" s="7">
-        <v>0</v>
-      </c>
-      <c r="N46" s="7">
-        <v>0</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,37 +3081,37 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L47" s="7" t="s">
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0</v>
-      </c>
-      <c r="N47" s="7">
-        <v>0</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,37 +3132,37 @@
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L48" s="7" t="s">
+      <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="M48" s="7">
-        <v>0</v>
-      </c>
-      <c r="N48" s="7">
-        <v>0</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,37 +3183,37 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L49" s="7" t="s">
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,7 +3231,7 @@
         <v>20</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>22</v>
@@ -3249,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>22</v>
@@ -3264,7 +3261,7 @@
         <v>20</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>22</v>
@@ -3341,7 +3338,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -3350,13 +3347,13 @@
         <v>637</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -3365,7 +3362,7 @@
         <v>637</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>11</v>
@@ -3392,7 +3389,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H53" s="7">
         <v>2</v>
@@ -3401,13 +3398,13 @@
         <v>1617</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -3416,13 +3413,13 @@
         <v>1617</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,7 +3440,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -3452,13 +3449,13 @@
         <v>696</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -3467,7 +3464,7 @@
         <v>696</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>11</v>
@@ -3494,7 +3491,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -3503,13 +3500,13 @@
         <v>729</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -3518,13 +3515,13 @@
         <v>729</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,7 +3554,7 @@
         <v>79</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>96</v>
@@ -3569,13 +3566,13 @@
         <v>6926746</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P56" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,7 +3628,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78DS4_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC56562-FF79-4B73-86E4-8386C149EA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FE8AE6B-C2DC-4C3F-847A-C8FC007A613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A4FF45B8-0EEE-4CA5-9B0E-509436CC95E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F770E9F2-1DF1-4481-889F-F5685A799A39}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -744,7 +744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD092886-BDE2-44FA-A6C5-072AF4EBD952}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B72FA42-F079-4852-B6DF-C06497980A81}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
